--- a/src/main/resources/new/1 Vocabulario.xlsx
+++ b/src/main/resources/new/1 Vocabulario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -13061,7 +13061,7 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -13723,7 +13723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>177</v>
       </c>
@@ -14203,7 +14203,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="85.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>2696</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2699</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>2709</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>2721</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>2727</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>2730</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>2736</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>2748</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>2751</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>2754</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>2763</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>2772</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>2775</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>2778</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>2781</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>2784</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>2787</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>2790</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>2793</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>2796</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>2799</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>2802</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>2805</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>2808</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>2811</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>2814</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>2823</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>2829</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>2835</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>2841</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>2853</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>2856</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>2862</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>2865</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>2868</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>2871</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>2885</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>2888</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>2915</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>2927</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>2939</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>2945</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>2948</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>2951</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>2957</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>2960</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>2966</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>2969</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>2972</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>2975</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>2987</v>
       </c>
@@ -15432,7 +15432,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="76.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>2993</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2999</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3005</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>3020</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>3026</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>3029</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>3035</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>3047</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>3053</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>3062</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>3074</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>3077</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>3083</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>3089</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>3092</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>3095</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>3098</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>3101</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>3107</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>3113</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>3122</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>3128</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>3134</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>3140</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>3152</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>3155</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>3161</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>3164</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>3167</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>3170</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>3185</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>3188</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>3215</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>3233</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>3239</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>3245</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>3248</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>3251</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>3260</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>3266</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>3269</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>3272</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>3275</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>3284</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>3287</v>
       </c>
@@ -16661,7 +16661,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="62.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>3293</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3296</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3299</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3302</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3305</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>3308</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>3320</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>3326</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>3329</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>3332</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>3335</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>3338</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>3350</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>3353</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>3362</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>3368</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>3371</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>3374</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>3377</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>3380</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>3383</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>3386</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>3389</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>3392</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>3395</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>3398</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>3401</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>3404</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>3407</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>3412</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>3418</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>3421</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>3427</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>3430</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>3433</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>3439</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>3448</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>3451</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>3454</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>3460</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>3463</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>3466</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>3469</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>3484</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>3487</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>3514</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>3532</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>3547</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>3550</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>3553</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>3559</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>3565</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>3568</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>3571</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>3574</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>3583</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>3586</v>
       </c>
@@ -17890,7 +17890,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="58.98"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>3592</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3595</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3598</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3601</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3604</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>3607</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>3619</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>3625</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>3628</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>3631</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>3634</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>3637</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>3646</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>3649</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>3652</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>3661</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>3667</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>3670</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>3673</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>3676</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>3679</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>3682</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>3685</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>3688</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>3691</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>3694</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>3697</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>3700</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>3703</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>3706</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>3709</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>3712</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>3718</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>3721</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>3727</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>3730</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>3739</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>3748</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>3751</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>3754</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>3760</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>3763</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>3766</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>3769</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>3778</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>3781</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>3784</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>3787</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>3802</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>3805</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>3811</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>3814</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>3826</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>3832</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>3838</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>3844</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>3847</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>3850</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>3853</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>3857</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>3860</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>3863</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>3866</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>3869</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>3872</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>3881</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>3884</v>
       </c>
@@ -19119,7 +19119,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="58.61"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>3890</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3893</v>
       </c>
@@ -19143,7 +19143,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3896</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3899</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3902</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>3905</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>3911</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>3917</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>3920</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>3923</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>3926</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>3929</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>3935</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>3941</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>3947</v>
       </c>
@@ -19359,7 +19359,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>3950</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>3959</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>3965</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>3968</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>3971</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>3974</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>3977</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>3980</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>3983</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>3986</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>3989</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>3995</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>4001</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>4004</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>4007</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>4016</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>4019</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>4025</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>4028</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>4031</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>4037</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>4046</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>4052</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>4058</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>4061</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>4064</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>4076</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>4079</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>4082</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>4085</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>4099</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>4108</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>4111</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>4123</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>4129</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>4135</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>4141</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>4144</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>4147</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>4150</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>4153</v>
       </c>
@@ -20187,7 +20187,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>4156</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>4159</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>4165</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>4168</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>4171</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>4180</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>4183</v>
       </c>
@@ -20336,7 +20336,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="55.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>4186</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4189</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4192</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>4198</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>4201</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>4207</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>4216</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>4219</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>4222</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>4225</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>4228</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>4231</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>4234</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>4237</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>4240</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>4243</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>4246</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>4252</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>4255</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>4264</v>
       </c>
@@ -20678,7 +20678,7 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -21397,7 +21397,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>477</v>
       </c>
@@ -21907,13 +21907,13 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="69.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="55.27"/>
   </cols>
@@ -22026,7 +22026,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>626</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>659</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>683</v>
       </c>
@@ -22386,7 +22386,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>716</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>761</v>
       </c>
@@ -22590,7 +22590,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>767</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>776</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>851</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>857</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>866</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>878</v>
       </c>
@@ -23136,7 +23136,7 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
     </sheetView>
   </sheetViews>
@@ -23255,7 +23255,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>926</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>956</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>968</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>977</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>980</v>
       </c>
@@ -23483,7 +23483,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>983</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>986</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>989</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>992</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>995</v>
       </c>
@@ -23543,7 +23543,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>998</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>1001</v>
       </c>
@@ -23615,7 +23615,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>1016</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>1040</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>1061</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>1067</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>1076</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>1091</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>1094</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>1121</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>1151</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>1157</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>1166</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>1178</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>1226</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>1256</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>1259</v>
       </c>
@@ -24652,7 +24652,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>1268</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>1277</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>1280</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>1283</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>1286</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>1289</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>1292</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>1295</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>1298</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>1301</v>
       </c>
@@ -24844,7 +24844,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>1316</v>
       </c>
@@ -24940,7 +24940,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>1340</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>1361</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>1367</v>
       </c>
@@ -25084,7 +25084,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>1376</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>1391</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>1394</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>1421</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>1451</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>1457</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>1466</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>1478</v>
       </c>
@@ -25629,7 +25629,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1505</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>1525</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>1552</v>
       </c>
@@ -25833,7 +25833,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>1555</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>1558</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>1567</v>
       </c>
@@ -25917,7 +25917,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>1576</v>
       </c>
@@ -25929,7 +25929,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>1579</v>
       </c>
@@ -25941,7 +25941,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>1582</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>1585</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>1588</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>1591</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>1594</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>1597</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>1600</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>1615</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>1639</v>
       </c>
@@ -26241,7 +26241,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>1657</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>1660</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>1666</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>1675</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>1690</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>1693</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>1720</v>
       </c>
@@ -26613,7 +26613,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>1750</v>
       </c>
@@ -26637,7 +26637,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>1756</v>
       </c>
@@ -26673,7 +26673,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>1765</v>
       </c>
@@ -26721,7 +26721,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>1777</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1804</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>1825</v>
       </c>
@@ -27050,7 +27050,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>1852</v>
       </c>
@@ -27074,7 +27074,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>1858</v>
       </c>
@@ -27110,7 +27110,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>1867</v>
       </c>
@@ -27146,7 +27146,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>1876</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>1879</v>
       </c>
@@ -27170,7 +27170,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>1882</v>
       </c>
@@ -27182,7 +27182,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>1885</v>
       </c>
@@ -27194,7 +27194,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>1888</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>1891</v>
       </c>
@@ -27218,7 +27218,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>1894</v>
       </c>
@@ -27230,7 +27230,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>1897</v>
       </c>
@@ -27242,7 +27242,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>1900</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>1915</v>
       </c>
@@ -27398,7 +27398,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>1939</v>
       </c>
@@ -27470,7 +27470,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>1957</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>1966</v>
       </c>
@@ -27542,7 +27542,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>1975</v>
       </c>
@@ -27602,7 +27602,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>1990</v>
       </c>
@@ -27614,7 +27614,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>1993</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>2056</v>
       </c>
@@ -27902,7 +27902,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>2065</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>2074</v>
       </c>
@@ -27950,7 +27950,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>2077</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>2152</v>
       </c>
@@ -28291,7 +28291,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>2155</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>2167</v>
       </c>
@@ -28375,7 +28375,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>2176</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>2179</v>
       </c>
@@ -28411,7 +28411,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>2185</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>2188</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>2191</v>
       </c>
@@ -28531,7 +28531,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>2215</v>
       </c>
@@ -28579,7 +28579,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>2227</v>
       </c>
@@ -28627,7 +28627,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>2239</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>2260</v>
       </c>
@@ -28735,7 +28735,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>2266</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>2269</v>
       </c>
@@ -28759,7 +28759,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>2272</v>
       </c>
@@ -28771,7 +28771,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>2275</v>
       </c>
@@ -28831,7 +28831,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>2290</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>2293</v>
       </c>
@@ -28951,7 +28951,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>2320</v>
       </c>
@@ -28999,7 +28999,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>2332</v>
       </c>
@@ -29047,7 +29047,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>2344</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>2350</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>2362</v>
       </c>
@@ -29131,7 +29131,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>2365</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>2374</v>
       </c>
@@ -29179,7 +29179,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>2377</v>
       </c>
@@ -29191,7 +29191,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>2380</v>
       </c>
@@ -29239,7 +29239,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>2390</v>
       </c>
@@ -29292,7 +29292,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="70.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>2396</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2402</v>
       </c>
@@ -29352,7 +29352,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>2411</v>
       </c>
@@ -29400,7 +29400,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>2423</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>2429</v>
       </c>
@@ -29436,7 +29436,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>2432</v>
       </c>
@@ -29460,7 +29460,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>2438</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>2450</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>2453</v>
       </c>
@@ -29532,7 +29532,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>2456</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>2465</v>
       </c>
@@ -29604,7 +29604,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>2474</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>2477</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>2480</v>
       </c>
@@ -29640,7 +29640,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>2483</v>
       </c>
@@ -29652,7 +29652,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>2486</v>
       </c>
@@ -29664,7 +29664,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>2489</v>
       </c>
@@ -29676,7 +29676,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>2492</v>
       </c>
@@ -29700,7 +29700,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>2498</v>
       </c>
@@ -29712,7 +29712,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>2501</v>
       </c>
@@ -29724,7 +29724,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>2504</v>
       </c>
@@ -29736,7 +29736,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>2507</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>2510</v>
       </c>
@@ -29760,7 +29760,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>2513</v>
       </c>
@@ -29808,7 +29808,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>2525</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>2537</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>2543</v>
       </c>
@@ -29928,7 +29928,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>2555</v>
       </c>
@@ -29940,7 +29940,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>2558</v>
       </c>
@@ -29964,7 +29964,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>2564</v>
       </c>
@@ -29976,7 +29976,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>2567</v>
       </c>
@@ -29988,7 +29988,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>2570</v>
       </c>
@@ -30000,7 +30000,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>2573</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>2588</v>
       </c>
@@ -30072,7 +30072,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>2591</v>
       </c>
@@ -30180,7 +30180,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>2618</v>
       </c>
@@ -30228,7 +30228,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>2630</v>
       </c>
@@ -30276,7 +30276,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>2642</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>2654</v>
       </c>
@@ -30348,7 +30348,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>2660</v>
       </c>
@@ -30360,7 +30360,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>2663</v>
       </c>
@@ -30384,7 +30384,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>2669</v>
       </c>
@@ -30396,7 +30396,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>2672</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>2675</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>2678</v>
       </c>
@@ -30468,7 +30468,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>2690</v>
       </c>
